--- a/medicine/Sexualité et sexologie/Anorgasmie/Anorgasmie.xlsx
+++ b/medicine/Sexualité et sexologie/Anorgasmie/Anorgasmie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’anorgasmie est une absence réitérée et persistante d’orgasme[1] (DSM-III), le désir étant conservé, contrairement à ce que l’on retrouve dans l’anaphrodisie. Ce syndrome souvent attribué exclusivement à la femme se rencontre également chez l’homme mais de façon plus rare. Elle peut être provoquée par des médicaments tels que les inhibiteurs sélectifs de la recapture de la sérotonine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’anorgasmie est une absence réitérée et persistante d’orgasme (DSM-III), le désir étant conservé, contrairement à ce que l’on retrouve dans l’anaphrodisie. Ce syndrome souvent attribué exclusivement à la femme se rencontre également chez l’homme mais de façon plus rare. Elle peut être provoquée par des médicaments tels que les inhibiteurs sélectifs de la recapture de la sérotonine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Anorgasmie féminine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’anorgasmie est dite primaire si cette absence d’orgasme existe depuis toujours. Si elle survient après une période normale de connaissance de l’orgasme, elle est alors dite secondaire. 
 Une femme qui se plaint d’anorgasmie peut avoir beaucoup de désir ou d’excitation durant le rapport sexuel ou la masturbation, mais sans jamais atteindre l’orgasme. 
@@ -545,7 +559,9 @@
           <t>Anorgasmie masculine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À moins de réduire l’orgasme masculin à l’éjaculation, il est bien évident qu’un homme peut souffrir d’anorgasmie. En effet chez l’homme, il peut y avoir éjaculation sans orgasme, sans plaisir, c’est ce que l’on nomme l’éjaculation anhédonique.
 </t>
